--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a25_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1438.4566348142198</v>
+        <v>-963.1075412558994</v>
       </c>
       <c r="C2">
-        <v>8.377460441</v>
+        <v>16.79699769</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1427.9132751704965</v>
+        <v>-960.4652471655578</v>
       </c>
       <c r="C3">
-        <v>0.327393256</v>
+        <v>74.921376205</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>1302</v>
-      </c>
       <c r="G3">
-        <v>1205</v>
+        <v>13424</v>
       </c>
       <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14460</v>
+      </c>
+      <c r="I3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1431.1234567604338</v>
+        <v>-962.1299820331456</v>
       </c>
       <c r="C4">
-        <v>0.292231118</v>
+        <v>15.880252325</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1428.8271505904509</v>
+        <v>-958.1263449022433</v>
       </c>
       <c r="C5">
-        <v>0.310196498</v>
+        <v>4.538358306</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1302</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1205</v>
+        <v>3506</v>
       </c>
       <c r="H5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3615</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1430.8057250884558</v>
+        <v>-963.1399746398837</v>
       </c>
       <c r="C6">
-        <v>0.245949122</v>
+        <v>19.106257274</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4820</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1422.6600489256507</v>
+        <v>-953.0698464388435</v>
       </c>
       <c r="C7">
-        <v>0.228175946</v>
+        <v>23.08839327</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1434.332854599697</v>
+        <v>-965.4153674106828</v>
       </c>
       <c r="C8">
-        <v>0.24144186</v>
+        <v>13.963779418</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1423.696623527594</v>
+        <v>-954.60510292371</v>
       </c>
       <c r="C9">
-        <v>0.244204364</v>
+        <v>2.961038048</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>1302</v>
-      </c>
       <c r="G9">
-        <v>1205</v>
+        <v>2404</v>
       </c>
       <c r="H9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2410</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1430.5223557418108</v>
+        <v>-960.9871769768599</v>
       </c>
       <c r="C10">
-        <v>0.231925008</v>
+        <v>74.062141077</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1302</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>1205</v>
+        <v>9016</v>
       </c>
       <c r="H10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>9640</v>
+      </c>
+      <c r="I10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1437.9375322645535</v>
+        <v>-965.3612225359301</v>
       </c>
       <c r="C11">
-        <v>0.235821316</v>
+        <v>29.268705877</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>8435</v>
+      </c>
+      <c r="I11">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,145 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>83.14719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03632223570141602</v>
+      </c>
+      <c r="E2">
+        <v>138.57865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1430.5223557418108</v>
+        <v>-1101.065986907896</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0595962449012</v>
       </c>
       <c r="D3">
+        <v>0.27236161915881346</v>
+      </c>
+      <c r="E3">
+        <v>9.50388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1016.1430581375512</v>
+      </c>
+      <c r="C4">
+        <v>0.09433821086434464</v>
+      </c>
+      <c r="D4">
+        <v>0.8016128448250732</v>
+      </c>
+      <c r="E4">
+        <v>4.77451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-975.8166309854379</v>
+      </c>
+      <c r="C5">
+        <v>0.09211009854791834</v>
+      </c>
+      <c r="D5">
+        <v>1.0520738105983887</v>
+      </c>
+      <c r="E5">
+        <v>3.35384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-972.528903470652</v>
+      </c>
+      <c r="C6">
+        <v>0.09601233376269672</v>
+      </c>
+      <c r="D6">
+        <v>2.3239793708225096</v>
+      </c>
+      <c r="E6">
+        <v>4.10422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-962.7772639719749</v>
+      </c>
+      <c r="C7">
+        <v>0.09177114635728105</v>
+      </c>
+      <c r="D7">
+        <v>2.3927342586373292</v>
+      </c>
+      <c r="E7">
+        <v>2.13434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-961.6878173317016</v>
+      </c>
+      <c r="C8">
+        <v>0.08604986438126828</v>
+      </c>
+      <c r="D8">
+        <v>24.235743230229858</v>
+      </c>
+      <c r="E8">
+        <v>1.36369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-961.0258454751205</v>
+      </c>
+      <c r="C9">
+        <v>0.08686426767701932</v>
+      </c>
+      <c r="D9">
+        <v>3.648674203233276</v>
+      </c>
+      <c r="E9">
+        <v>0.57512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-960.9871769768599</v>
+      </c>
+      <c r="C10">
+        <v>0.07285588719889492</v>
+      </c>
+      <c r="D10">
+        <v>36.76494144618726</v>
+      </c>
+      <c r="E10">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +946,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +980,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>80.84479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.047406280818359375</v>
+      </c>
+      <c r="E2">
+        <v>134.74132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1437.9375322645535</v>
+        <v>-1001.9858167039556</v>
       </c>
       <c r="C3">
-        <v>1.5812486310523797e-14</v>
+        <v>0.09905879316765</v>
       </c>
       <c r="D3">
+        <v>0.7306008341175537</v>
+      </c>
+      <c r="E3">
+        <v>5.0093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-974.503473699999</v>
+      </c>
+      <c r="C4">
+        <v>0.08331022630207116</v>
+      </c>
+      <c r="D4">
+        <v>1.9096800305069581</v>
+      </c>
+      <c r="E4">
+        <v>3.74316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-969.6315173426015</v>
+      </c>
+      <c r="C5">
+        <v>0.09634777220847611</v>
+      </c>
+      <c r="D5">
+        <v>2.9326953942302247</v>
+      </c>
+      <c r="E5">
+        <v>2.07293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-968.8898214456283</v>
+      </c>
+      <c r="C6">
+        <v>0.0032165789792454173</v>
+      </c>
+      <c r="D6">
+        <v>3.866124738633789</v>
+      </c>
+      <c r="E6">
+        <v>1.83124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-967.5036915547614</v>
+      </c>
+      <c r="C7">
+        <v>0.07982253411223979</v>
+      </c>
+      <c r="D7">
+        <v>6.423956069357666</v>
+      </c>
+      <c r="E7">
+        <v>1.93287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-966.5901498189507</v>
+      </c>
+      <c r="C8">
+        <v>0.09894157063220743</v>
+      </c>
+      <c r="D8">
+        <v>4.429860671253296</v>
+      </c>
+      <c r="E8">
+        <v>1.74393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-965.3612225359301</v>
+      </c>
+      <c r="C9">
+        <v>0.09798461725720227</v>
+      </c>
+      <c r="D9">
+        <v>6.695815966075684</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +1112,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1146,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>81.73478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.856154073303711</v>
+      </c>
+      <c r="E2">
+        <v>136.22463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1438.4566348142198</v>
+        <v>-1047.5670842747095</v>
       </c>
       <c r="C3">
-        <v>3.161355996979111e-14</v>
+        <v>0.09141714690851618</v>
       </c>
       <c r="D3">
+        <v>0.4943936672697754</v>
+      </c>
+      <c r="E3">
+        <v>6.87312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-998.228699049403</v>
+      </c>
+      <c r="C4">
+        <v>0.07095374306003903</v>
+      </c>
+      <c r="D4">
+        <v>0.6762792325976562</v>
+      </c>
+      <c r="E4">
+        <v>4.36217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-965.4395804423034</v>
+      </c>
+      <c r="C5">
+        <v>0.08629664357833984</v>
+      </c>
+      <c r="D5">
+        <v>1.2885185864040527</v>
+      </c>
+      <c r="E5">
+        <v>2.21668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-963.1301955236444</v>
+      </c>
+      <c r="C6">
+        <v>0.09817256634207495</v>
+      </c>
+      <c r="D6">
+        <v>2.493418363557129</v>
+      </c>
+      <c r="E6">
+        <v>0.34294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-963.1075412558994</v>
+      </c>
+      <c r="C7">
+        <v>0.09726084769501256</v>
+      </c>
+      <c r="D7">
+        <v>2.3726498772678224</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1244,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1278,213 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>82.2981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.060082917885009766</v>
+      </c>
+      <c r="E2">
+        <v>137.1635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1427.9132751704965</v>
+        <v>-1003.1186457695263</v>
       </c>
       <c r="C3">
-        <v>1.5923493351938137e-14</v>
+        <v>0.09912937415175807</v>
       </c>
       <c r="D3">
+        <v>0.4506711558269043</v>
+      </c>
+      <c r="E3">
+        <v>5.33726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-992.8128153860025</v>
+      </c>
+      <c r="C4">
+        <v>0.09330168026455775</v>
+      </c>
+      <c r="D4">
+        <v>0.8372430060454101</v>
+      </c>
+      <c r="E4">
+        <v>4.49584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-987.4246710309205</v>
+      </c>
+      <c r="C5">
+        <v>0.09364252079745894</v>
+      </c>
+      <c r="D5">
+        <v>1.0005405613817138</v>
+      </c>
+      <c r="E5">
+        <v>4.89835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-979.4480676174799</v>
+      </c>
+      <c r="C6">
+        <v>0.06094377313532749</v>
+      </c>
+      <c r="D6">
+        <v>1.3521829941879884</v>
+      </c>
+      <c r="E6">
+        <v>3.73191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-975.5754767032668</v>
+      </c>
+      <c r="C7">
+        <v>0.0949331173532824</v>
+      </c>
+      <c r="D7">
+        <v>2.461248459871338</v>
+      </c>
+      <c r="E7">
+        <v>2.97535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-962.8395722095541</v>
+      </c>
+      <c r="C8">
+        <v>0.09139339614704337</v>
+      </c>
+      <c r="D8">
+        <v>4.299467680102417</v>
+      </c>
+      <c r="E8">
+        <v>2.14748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-961.5808888734889</v>
+      </c>
+      <c r="C9">
+        <v>0.0517489547785629</v>
+      </c>
+      <c r="D9">
+        <v>2.8981448931138916</v>
+      </c>
+      <c r="E9">
+        <v>1.53699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-960.7270905163512</v>
+      </c>
+      <c r="C10">
+        <v>0.008106779732665515</v>
+      </c>
+      <c r="D10">
+        <v>23.244495439658447</v>
+      </c>
+      <c r="E10">
+        <v>0.81887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-960.6263655127793</v>
+      </c>
+      <c r="C11">
+        <v>0.09726979074879231</v>
+      </c>
+      <c r="D11">
+        <v>5.546492978090942</v>
+      </c>
+      <c r="E11">
+        <v>0.62163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-960.5324303164774</v>
+      </c>
+      <c r="C12">
+        <v>0.0902286911757703</v>
+      </c>
+      <c r="D12">
+        <v>8.706115613460206</v>
+      </c>
+      <c r="E12">
+        <v>0.26149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-960.4733192152474</v>
+      </c>
+      <c r="C13">
+        <v>0.08167923775822927</v>
+      </c>
+      <c r="D13">
+        <v>8.821101363717407</v>
+      </c>
+      <c r="E13">
+        <v>0.07095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-960.4652471655578</v>
+      </c>
+      <c r="C14">
+        <v>0.09562065766422263</v>
+      </c>
+      <c r="D14">
+        <v>8.408062837750855</v>
+      </c>
+      <c r="E14">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1495,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1529,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>81.95684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04807603521948242</v>
+      </c>
+      <c r="E2">
+        <v>136.59474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1431.1234567604338</v>
+        <v>-966.3650598438439</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09705748089871075</v>
       </c>
       <c r="D3">
+        <v>0.6231710436173096</v>
+      </c>
+      <c r="E3">
+        <v>2.46656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-964.1755437881623</v>
+      </c>
+      <c r="C4">
+        <v>0.09544163705516509</v>
+      </c>
+      <c r="D4">
+        <v>2.87043863437146</v>
+      </c>
+      <c r="E4">
+        <v>2.08585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-963.3294775108025</v>
+      </c>
+      <c r="C5">
+        <v>0.08782730074306916</v>
+      </c>
+      <c r="D5">
+        <v>4.543392639246094</v>
+      </c>
+      <c r="E5">
+        <v>1.85484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-962.1776375382028</v>
+      </c>
+      <c r="C6">
+        <v>0.0993076896463905</v>
+      </c>
+      <c r="D6">
+        <v>2.7219234771691894</v>
+      </c>
+      <c r="E6">
+        <v>0.77461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-962.1299820331456</v>
+      </c>
+      <c r="C7">
+        <v>0.09240607797296124</v>
+      </c>
+      <c r="D7">
+        <v>3.904803516053589</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1627,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1661,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>82.70948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06190037558117676</v>
+      </c>
+      <c r="E2">
+        <v>137.84913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1428.8271505904509</v>
+        <v>-991.0887438645369</v>
       </c>
       <c r="C3">
-        <v>4.773992613786542e-14</v>
+        <v>0.08297617264219768</v>
       </c>
       <c r="D3">
+        <v>0.5275517894918212</v>
+      </c>
+      <c r="E3">
+        <v>5.64282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-962.4064146971245</v>
+      </c>
+      <c r="C4">
+        <v>0.0956507899191911</v>
+      </c>
+      <c r="D4">
+        <v>1.4536036919431152</v>
+      </c>
+      <c r="E4">
+        <v>3.24734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-958.1263449022433</v>
+      </c>
+      <c r="C5">
+        <v>0.09663622534927635</v>
+      </c>
+      <c r="D5">
+        <v>1.9718786127220458</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1725,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1759,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>83.33724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03648035839868164</v>
+      </c>
+      <c r="E2">
+        <v>138.89541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1430.8057250884558</v>
+        <v>-1020.8386848228671</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06530415819454367</v>
       </c>
       <c r="D3">
+        <v>0.8208056466733399</v>
+      </c>
+      <c r="E3">
+        <v>4.76297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-966.7865572939634</v>
+      </c>
+      <c r="C4">
+        <v>0.09342652371207143</v>
+      </c>
+      <c r="D4">
+        <v>1.198549060334961</v>
+      </c>
+      <c r="E4">
+        <v>2.48955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-964.3675805844672</v>
+      </c>
+      <c r="C5">
+        <v>0.09459030943880216</v>
+      </c>
+      <c r="D5">
+        <v>1.7768730110701905</v>
+      </c>
+      <c r="E5">
+        <v>2.05181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-963.1399746398837</v>
+      </c>
+      <c r="C6">
+        <v>0.08315509189815913</v>
+      </c>
+      <c r="D6">
+        <v>14.077612630578368</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1840,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1874,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>82.07834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04930881072875976</v>
+      </c>
+      <c r="E2">
+        <v>136.79724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1422.6600489256507</v>
+        <v>-1062.0959039820411</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.3008862489005127</v>
+      </c>
+      <c r="E3">
+        <v>7.7116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-961.4509562299759</v>
+      </c>
+      <c r="C4">
+        <v>0.09885466965634025</v>
+      </c>
+      <c r="D4">
+        <v>1.0443480551229247</v>
+      </c>
+      <c r="E4">
+        <v>4.04597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-954.9100453811357</v>
+      </c>
+      <c r="C5">
+        <v>0.09681513965378286</v>
+      </c>
+      <c r="D5">
+        <v>1.5825561933829346</v>
+      </c>
+      <c r="E5">
+        <v>2.56831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-954.2228060890382</v>
+      </c>
+      <c r="C6">
+        <v>0.08749082487041773</v>
+      </c>
+      <c r="D6">
+        <v>2.488985812390015</v>
+      </c>
+      <c r="E6">
+        <v>2.87975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-953.0698464388435</v>
+      </c>
+      <c r="C7">
+        <v>0.00815641984513423</v>
+      </c>
+      <c r="D7">
+        <v>16.13469274363049</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1972,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +2006,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>82.06694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03837009488500977</v>
+      </c>
+      <c r="E2">
+        <v>136.77823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1434.332854599697</v>
+        <v>-978.8528971678966</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09950450081870311</v>
       </c>
       <c r="D3">
+        <v>0.7122801298306884</v>
+      </c>
+      <c r="E3">
+        <v>3.06425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-973.6406602605457</v>
+      </c>
+      <c r="C4">
+        <v>0.09120973100378217</v>
+      </c>
+      <c r="D4">
+        <v>1.5539942297471925</v>
+      </c>
+      <c r="E4">
+        <v>3.23503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-970.748380284721</v>
+      </c>
+      <c r="C5">
+        <v>0.09565173770988768</v>
+      </c>
+      <c r="D5">
+        <v>2.4500064439119873</v>
+      </c>
+      <c r="E5">
+        <v>2.32779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-967.2748056669989</v>
+      </c>
+      <c r="C6">
+        <v>0.09529178983691128</v>
+      </c>
+      <c r="D6">
+        <v>3.2324028358616945</v>
+      </c>
+      <c r="E6">
+        <v>1.73365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-965.4153674106828</v>
+      </c>
+      <c r="C7">
+        <v>0.09810544970165719</v>
+      </c>
+      <c r="D7">
+        <v>4.325552091737549</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +2104,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +2138,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>83.52738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0492477313046875</v>
+      </c>
+      <c r="E2">
+        <v>139.2123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1423.696623527594</v>
+        <v>-959.1535698617467</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0993392930607948</v>
       </c>
       <c r="D3">
+        <v>0.6965637687341308</v>
+      </c>
+      <c r="E3">
+        <v>2.45319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-954.60510292371</v>
+      </c>
+      <c r="C4">
+        <v>0.09574916917299711</v>
+      </c>
+      <c r="D4">
+        <v>1.5509894646884765</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
